--- a/Heuristic Comparer/Testy.xlsx
+++ b/Heuristic Comparer/Testy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="153">
   <si>
     <t>SA</t>
   </si>
@@ -276,6 +276,210 @@
   </si>
   <si>
     <t>Griewank</t>
+  </si>
+  <si>
+    <t>-507.2972755236</t>
+  </si>
+  <si>
+    <t>-477.4604894551</t>
+  </si>
+  <si>
+    <t>-496.5664786730</t>
+  </si>
+  <si>
+    <t>-590.6141795564</t>
+  </si>
+  <si>
+    <t>-503.4582069082</t>
+  </si>
+  <si>
+    <t>-496.5027334682</t>
+  </si>
+  <si>
+    <t>-806.4533250127</t>
+  </si>
+  <si>
+    <t>-807.1551523680</t>
+  </si>
+  <si>
+    <t>-899.7534373784</t>
+  </si>
+  <si>
+    <t>-842.7719925162</t>
+  </si>
+  <si>
+    <t>-839.9988161447</t>
+  </si>
+  <si>
+    <t>-874.1013104221</t>
+  </si>
+  <si>
+    <t>-959.6406627208</t>
+  </si>
+  <si>
+    <t>-953.1344864877</t>
+  </si>
+  <si>
+    <t>-899.9158230641</t>
+  </si>
+  <si>
+    <t>-906.9863272198</t>
+  </si>
+  <si>
+    <t>-881.2475052255</t>
+  </si>
+  <si>
+    <t>-905.7545007512</t>
+  </si>
+  <si>
+    <t>-895.7299098099</t>
+  </si>
+  <si>
+    <t>-918.9837475817</t>
+  </si>
+  <si>
+    <t>-480.1922343797</t>
+  </si>
+  <si>
+    <t>-473.2782725367</t>
+  </si>
+  <si>
+    <t>-486.5160992505</t>
+  </si>
+  <si>
+    <t>-489.3342568243</t>
+  </si>
+  <si>
+    <t>-543.2227757734</t>
+  </si>
+  <si>
+    <t>-619.1562756560</t>
+  </si>
+  <si>
+    <t>-652.5914160128</t>
+  </si>
+  <si>
+    <t>-739.0981697762</t>
+  </si>
+  <si>
+    <t>-659.7221222038</t>
+  </si>
+  <si>
+    <t>-712.8677156918</t>
+  </si>
+  <si>
+    <t>-597.8947969195</t>
+  </si>
+  <si>
+    <t>-633.9218592223</t>
+  </si>
+  <si>
+    <t>-925.6740897569</t>
+  </si>
+  <si>
+    <t>-914.7787238875</t>
+  </si>
+  <si>
+    <t>-933.0528648460</t>
+  </si>
+  <si>
+    <t>-904.8055009558</t>
+  </si>
+  <si>
+    <t>-914.4848365628</t>
+  </si>
+  <si>
+    <t>-915.0478140749</t>
+  </si>
+  <si>
+    <t>-815.8866418328</t>
+  </si>
+  <si>
+    <t>-852.2337662563</t>
+  </si>
+  <si>
+    <t>-823.8947661430</t>
+  </si>
+  <si>
+    <t>-866.6794473442</t>
+  </si>
+  <si>
+    <t>-822.2363826274</t>
+  </si>
+  <si>
+    <t>-800.9376328481</t>
+  </si>
+  <si>
+    <t>-959.6162626435</t>
+  </si>
+  <si>
+    <t>-959.6406626675</t>
+  </si>
+  <si>
+    <t>-869.4020224094</t>
+  </si>
+  <si>
+    <t>-864.2407402121</t>
+  </si>
+  <si>
+    <t>-905.1758119066</t>
+  </si>
+  <si>
+    <t>-898.6049214920</t>
+  </si>
+  <si>
+    <t>-915.9875379751</t>
+  </si>
+  <si>
+    <t>-882.6361707131</t>
+  </si>
+  <si>
+    <t>-959.0740142919</t>
+  </si>
+  <si>
+    <t>-959.5857927715</t>
+  </si>
+  <si>
+    <t>-959.6406627193</t>
+  </si>
+  <si>
+    <t>-959.6406627207</t>
+  </si>
+  <si>
+    <t>-949.5367179635</t>
+  </si>
+  <si>
+    <t>-911.9161970849</t>
+  </si>
+  <si>
+    <t>-907.8045020800</t>
+  </si>
+  <si>
+    <t>-928.6231440530</t>
+  </si>
+  <si>
+    <t>-946.0653327426</t>
+  </si>
+  <si>
+    <t>-940.6002706145</t>
+  </si>
+  <si>
+    <t>-641.3736194832</t>
+  </si>
+  <si>
+    <t>-710.1073983242</t>
+  </si>
+  <si>
+    <t>-743.8677667207</t>
+  </si>
+  <si>
+    <t>-689.5239792284</t>
+  </si>
+  <si>
+    <t>-665.2710669378</t>
+  </si>
+  <si>
+    <t>-705.6188152146</t>
   </si>
 </sst>
 </file>
@@ -618,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -885,6 +1089,8 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -11329,7 +11535,7 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W80" sqref="A1:W80"/>
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13350,8 +13556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13458,10 +13664,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="E5" s="12">
-        <v>8700</v>
+        <v>8249</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8">
@@ -13471,10 +13677,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="J5" s="12">
-        <v>28900</v>
+        <v>28617</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -13486,10 +13692,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E6" s="12">
-        <v>17558</v>
+        <v>17046</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
@@ -13499,10 +13705,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="J6" s="12">
-        <v>58628</v>
+        <v>58934</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -13514,10 +13720,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12">
-        <v>25908</v>
+        <v>25225</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
@@ -13527,10 +13733,10 @@
         <v>10</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="J7" s="12">
-        <v>87904</v>
+        <v>87470</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -13542,10 +13748,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="E8" s="12">
-        <v>34358</v>
+        <v>34094</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
@@ -13555,10 +13761,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="J8" s="12">
-        <v>114642</v>
+        <v>118262</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -13570,10 +13776,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="E9" s="12">
-        <v>43774</v>
+        <v>40654</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
@@ -13583,10 +13789,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="J9" s="12">
-        <v>146008</v>
+        <v>152606</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -13598,10 +13804,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="E10" s="12">
-        <v>52236</v>
+        <v>48645</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
@@ -13611,10 +13817,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="J10" s="12">
-        <v>173726</v>
+        <v>178690</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -13726,10 +13932,10 @@
         <v>50</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E14" s="12">
-        <v>14080</v>
+        <v>14575</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8">
@@ -13739,38 +13945,38 @@
         <v>50</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J14" s="12">
-        <v>41360</v>
+        <v>42620</v>
       </c>
       <c r="M14" s="26">
         <v>1</v>
       </c>
-      <c r="N14" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="76"/>
-      <c r="P14" s="90">
-        <v>1877</v>
+      <c r="N14" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="80"/>
+      <c r="P14" s="95">
+        <v>1623</v>
       </c>
       <c r="Q14" s="12">
         <v>100</v>
       </c>
-      <c r="R14" s="18">
-        <v>-304.14776783470001</v>
+      <c r="R14" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="S14" s="12">
-        <v>15580</v>
+        <v>14790</v>
       </c>
       <c r="T14" s="10">
         <v>100</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V14" s="10">
-        <v>35900</v>
+        <v>36350</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -13782,10 +13988,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E15" s="12">
-        <v>28510</v>
+        <v>28455</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
@@ -13795,38 +14001,38 @@
         <v>50</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J15" s="12">
-        <v>82020</v>
+        <v>85915</v>
       </c>
       <c r="M15" s="26">
         <v>2</v>
       </c>
-      <c r="N15" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="90">
-        <v>3856</v>
+      <c r="N15" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="80"/>
+      <c r="P15" s="95">
+        <v>3105</v>
       </c>
       <c r="Q15" s="12">
         <v>100</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="S15" s="12">
-        <v>30660</v>
+        <v>31170</v>
       </c>
       <c r="T15" s="10">
         <v>100</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V15" s="10">
-        <v>72640</v>
+        <v>73340</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -13838,10 +14044,10 @@
         <v>50</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E16" s="12">
-        <v>43530</v>
+        <v>43720</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8">
@@ -13851,38 +14057,38 @@
         <v>50</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="J16" s="12">
-        <v>124770</v>
+        <v>128705</v>
       </c>
       <c r="M16" s="26">
         <v>3</v>
       </c>
-      <c r="N16" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="76"/>
-      <c r="P16" s="90">
-        <v>5749</v>
+      <c r="N16" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="80"/>
+      <c r="P16" s="95">
+        <v>4954</v>
       </c>
       <c r="Q16" s="12">
         <v>100</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="S16" s="12">
-        <v>45600</v>
+        <v>44990</v>
       </c>
       <c r="T16" s="10">
         <v>100</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V16" s="10">
-        <v>107920</v>
+        <v>111470</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -13894,10 +14100,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E17" s="12">
-        <v>57860</v>
+        <v>57395</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8">
@@ -13907,38 +14113,38 @@
         <v>50</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="J17" s="12">
-        <v>167850</v>
+        <v>173690</v>
       </c>
       <c r="M17" s="26">
         <v>4</v>
       </c>
-      <c r="N17" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="76"/>
-      <c r="P17" s="90">
-        <v>7590</v>
+      <c r="N17" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="80"/>
+      <c r="P17" s="95">
+        <v>6649</v>
       </c>
       <c r="Q17" s="12">
         <v>100</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="S17" s="12">
-        <v>60740</v>
+        <v>63010</v>
       </c>
       <c r="T17" s="10">
         <v>100</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V17" s="10">
-        <v>142680</v>
+        <v>148230</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -13949,11 +14155,11 @@
       <c r="C18" s="12">
         <v>50</v>
       </c>
-      <c r="D18" s="18">
-        <v>-300.14492201920001</v>
+      <c r="D18" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="E18" s="12">
-        <v>72290</v>
+        <v>70320</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
@@ -13963,38 +14169,38 @@
         <v>50</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J18" s="12">
-        <v>209980</v>
+        <v>219210</v>
       </c>
       <c r="M18" s="26">
         <v>5</v>
       </c>
-      <c r="N18" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="76"/>
-      <c r="P18" s="90">
-        <v>9455</v>
+      <c r="N18" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="80"/>
+      <c r="P18" s="95">
+        <v>8457</v>
       </c>
       <c r="Q18" s="12">
         <v>100</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S18" s="12">
-        <v>76660</v>
+        <v>79950</v>
       </c>
       <c r="T18" s="10">
         <v>100</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V18" s="10">
-        <v>181980</v>
+        <v>183010</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -14006,10 +14212,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E19" s="12">
-        <v>84760</v>
+        <v>82395</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
@@ -14019,38 +14225,38 @@
         <v>50</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J19" s="12">
-        <v>243960</v>
+        <v>260525</v>
       </c>
       <c r="M19" s="26">
         <v>6</v>
       </c>
-      <c r="N19" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="76"/>
-      <c r="P19" s="90">
-        <v>11264</v>
+      <c r="N19" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="80"/>
+      <c r="P19" s="95">
+        <v>9105</v>
       </c>
       <c r="Q19" s="12">
         <v>100</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="S19" s="12">
-        <v>93220</v>
+        <v>93610</v>
       </c>
       <c r="T19" s="10">
         <v>100</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V19" s="10">
-        <v>214580</v>
+        <v>215380</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -14117,11 +14323,11 @@
       <c r="C23" s="10">
         <v>100</v>
       </c>
-      <c r="D23" s="19">
-        <v>-304.14776783470001</v>
+      <c r="D23" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E23" s="10">
-        <v>15580</v>
+        <v>14790</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
@@ -14131,10 +14337,10 @@
         <v>100</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J23" s="10">
-        <v>35900</v>
+        <v>36350</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -14146,10 +14352,10 @@
         <v>100</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E24" s="10">
-        <v>30660</v>
+        <v>31170</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
@@ -14159,10 +14365,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J24" s="10">
-        <v>72640</v>
+        <v>73340</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -14174,10 +14380,10 @@
         <v>100</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E25" s="10">
-        <v>45600</v>
+        <v>44990</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8">
@@ -14187,10 +14393,10 @@
         <v>100</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J25" s="10">
-        <v>107920</v>
+        <v>111470</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -14202,10 +14408,10 @@
         <v>100</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E26" s="10">
-        <v>60740</v>
+        <v>63010</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8">
@@ -14215,10 +14421,10 @@
         <v>100</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J26" s="10">
-        <v>142680</v>
+        <v>148230</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -14230,10 +14436,10 @@
         <v>100</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E27" s="10">
-        <v>76660</v>
+        <v>79950</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8">
@@ -14243,10 +14449,10 @@
         <v>100</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J27" s="10">
-        <v>181980</v>
+        <v>183010</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -14258,10 +14464,10 @@
         <v>100</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E28" s="10">
-        <v>93220</v>
+        <v>93610</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8">
@@ -14271,10 +14477,10 @@
         <v>100</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J28" s="10">
-        <v>214580</v>
+        <v>215380</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -14301,72 +14507,72 @@
       <c r="B32" s="26">
         <v>1</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="89">
-        <v>1877</v>
+      <c r="C32" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="94">
+        <v>1623</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="26">
         <v>2</v>
       </c>
-      <c r="C33" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="89">
-        <v>3856</v>
+      <c r="C33" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="94">
+        <v>3105</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="26">
         <v>3</v>
       </c>
-      <c r="C34" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="89">
-        <v>5749</v>
+      <c r="C34" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="94">
+        <v>4954</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
         <v>4</v>
       </c>
-      <c r="C35" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="89">
-        <v>7590</v>
+      <c r="C35" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="78"/>
+      <c r="E35" s="94">
+        <v>6649</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="26">
         <v>5</v>
       </c>
-      <c r="C36" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="89">
-        <v>9455</v>
+      <c r="C36" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="94">
+        <v>8457</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
         <v>6</v>
       </c>
-      <c r="C37" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="89">
-        <v>11264</v>
+      <c r="C37" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="94">
+        <v>9105</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -14424,7 +14630,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E44" s="12">
         <v>100</v>
@@ -14437,7 +14643,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="J44" s="12">
         <v>100</v>
@@ -14451,7 +14657,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E45" s="12">
         <v>200</v>
@@ -14464,7 +14670,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J45" s="12">
         <v>200</v>
@@ -14478,7 +14684,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E46" s="12">
         <v>300</v>
@@ -14491,7 +14697,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="J46" s="12">
         <v>300</v>
@@ -14505,7 +14711,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E47" s="12">
         <v>400</v>
@@ -14518,7 +14724,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="J47" s="12">
         <v>400</v>
@@ -14532,7 +14738,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E48" s="12">
         <v>500</v>
@@ -14545,7 +14751,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="J48" s="12">
         <v>500</v>
@@ -14559,7 +14765,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E49" s="12">
         <v>600</v>
@@ -14572,7 +14778,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="J49" s="12">
         <v>600</v>
@@ -14683,7 +14889,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E53" s="12">
         <v>20</v>
@@ -14692,20 +14898,20 @@
       <c r="G53" s="8">
         <v>1000</v>
       </c>
-      <c r="H53" s="10">
-        <v>50</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J53" s="10">
+      <c r="H53" s="12">
+        <v>50</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" s="12">
         <v>20</v>
       </c>
       <c r="M53" s="8">
         <v>1000</v>
       </c>
       <c r="N53" s="79" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="O53" s="80"/>
       <c r="P53" s="12">
@@ -14715,19 +14921,19 @@
         <v>100</v>
       </c>
       <c r="R53" s="43" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="S53" s="12">
         <v>10</v>
       </c>
       <c r="T53" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U53" s="32" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="V53" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
@@ -14738,7 +14944,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E54" s="12">
         <v>40</v>
@@ -14747,22 +14953,22 @@
       <c r="G54" s="8">
         <v>2000</v>
       </c>
-      <c r="H54" s="10">
-        <v>50</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="10">
+      <c r="H54" s="12">
+        <v>50</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" s="12">
         <v>40</v>
       </c>
       <c r="M54" s="8">
         <v>2000</v>
       </c>
-      <c r="N54" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="O54" s="76"/>
+      <c r="N54" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54" s="80"/>
       <c r="P54" s="12">
         <v>2000</v>
       </c>
@@ -14770,19 +14976,19 @@
         <v>100</v>
       </c>
       <c r="R54" s="43" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="S54" s="12">
         <v>20</v>
       </c>
       <c r="T54" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U54" s="32" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="V54" s="10">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
@@ -14793,7 +14999,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E55" s="12">
         <v>60</v>
@@ -14802,20 +15008,20 @@
       <c r="G55" s="8">
         <v>3000</v>
       </c>
-      <c r="H55" s="10">
-        <v>50</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="10">
+      <c r="H55" s="12">
+        <v>50</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="12">
         <v>60</v>
       </c>
       <c r="M55" s="8">
         <v>3000</v>
       </c>
       <c r="N55" s="79" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="O55" s="80"/>
       <c r="P55" s="12">
@@ -14825,19 +15031,19 @@
         <v>100</v>
       </c>
       <c r="R55" s="43" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="S55" s="12">
         <v>30</v>
       </c>
       <c r="T55" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U55" s="32" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="V55" s="10">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
@@ -14848,7 +15054,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E56" s="12">
         <v>80</v>
@@ -14857,20 +15063,20 @@
       <c r="G56" s="8">
         <v>4000</v>
       </c>
-      <c r="H56" s="10">
-        <v>50</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" s="10">
+      <c r="H56" s="12">
+        <v>50</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J56" s="12">
         <v>80</v>
       </c>
       <c r="M56" s="8">
         <v>4000</v>
       </c>
       <c r="N56" s="79" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="O56" s="80"/>
       <c r="P56" s="12">
@@ -14880,19 +15086,19 @@
         <v>100</v>
       </c>
       <c r="R56" s="43" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="S56" s="12">
         <v>40</v>
       </c>
       <c r="T56" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U56" s="32" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="V56" s="10">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
@@ -14903,7 +15109,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E57" s="12">
         <v>100</v>
@@ -14912,20 +15118,20 @@
       <c r="G57" s="8">
         <v>5000</v>
       </c>
-      <c r="H57" s="10">
-        <v>50</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="J57" s="10">
+      <c r="H57" s="12">
+        <v>50</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="12">
         <v>100</v>
       </c>
       <c r="M57" s="8">
         <v>5000</v>
       </c>
       <c r="N57" s="79" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="O57" s="80"/>
       <c r="P57" s="12">
@@ -14935,19 +15141,19 @@
         <v>100</v>
       </c>
       <c r="R57" s="43" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="S57" s="12">
         <v>50</v>
       </c>
       <c r="T57" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V57" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
@@ -14958,7 +15164,7 @@
         <v>50</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E58" s="12">
         <v>120</v>
@@ -14967,20 +15173,20 @@
       <c r="G58" s="8">
         <v>6000</v>
       </c>
-      <c r="H58" s="10">
-        <v>50</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="J58" s="10">
+      <c r="H58" s="12">
+        <v>50</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="12">
         <v>120</v>
       </c>
       <c r="M58" s="8">
         <v>6000</v>
       </c>
       <c r="N58" s="79" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="O58" s="80"/>
       <c r="P58" s="12">
@@ -14990,19 +15196,19 @@
         <v>100</v>
       </c>
       <c r="R58" s="43" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="S58" s="12">
         <v>60</v>
       </c>
       <c r="T58" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="U58" s="32" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="V58" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
@@ -15066,7 +15272,7 @@
         <v>100</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E62" s="10">
         <v>10</v>
@@ -15075,13 +15281,13 @@
       <c r="G62" s="8">
         <v>1000</v>
       </c>
-      <c r="H62" s="12">
-        <v>100</v>
-      </c>
-      <c r="I62" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="H62" s="10">
+        <v>100</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J62" s="10">
         <v>10</v>
       </c>
     </row>
@@ -15093,7 +15299,7 @@
         <v>100</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E63" s="10">
         <v>20</v>
@@ -15102,13 +15308,13 @@
       <c r="G63" s="8">
         <v>2000</v>
       </c>
-      <c r="H63" s="12">
-        <v>100</v>
-      </c>
-      <c r="I63" s="43">
-        <v>-303.66418382820001</v>
-      </c>
-      <c r="J63" s="12">
+      <c r="H63" s="10">
+        <v>100</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63" s="10">
         <v>20</v>
       </c>
     </row>
@@ -15120,7 +15326,7 @@
         <v>100</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E64" s="10">
         <v>30</v>
@@ -15129,13 +15335,13 @@
       <c r="G64" s="8">
         <v>3000</v>
       </c>
-      <c r="H64" s="12">
-        <v>100</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" s="12">
+      <c r="H64" s="10">
+        <v>100</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="J64" s="10">
         <v>30</v>
       </c>
     </row>
@@ -15147,7 +15353,7 @@
         <v>100</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E65" s="10">
         <v>40</v>
@@ -15156,13 +15362,13 @@
       <c r="G65" s="8">
         <v>4000</v>
       </c>
-      <c r="H65" s="12">
-        <v>100</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J65" s="12">
+      <c r="H65" s="10">
+        <v>100</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J65" s="10">
         <v>40</v>
       </c>
     </row>
@@ -15174,7 +15380,7 @@
         <v>100</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E66" s="10">
         <v>50</v>
@@ -15183,13 +15389,13 @@
       <c r="G66" s="8">
         <v>5000</v>
       </c>
-      <c r="H66" s="12">
-        <v>100</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="12">
+      <c r="H66" s="10">
+        <v>100</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J66" s="10">
         <v>50</v>
       </c>
     </row>
@@ -15201,7 +15407,7 @@
         <v>100</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E67" s="10">
         <v>60</v>
@@ -15210,13 +15416,13 @@
       <c r="G67" s="8">
         <v>6000</v>
       </c>
-      <c r="H67" s="12">
-        <v>100</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="J67" s="12">
+      <c r="H67" s="10">
+        <v>100</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J67" s="10">
         <v>60</v>
       </c>
     </row>
@@ -15245,7 +15451,7 @@
         <v>1000</v>
       </c>
       <c r="C71" s="77" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="D71" s="78"/>
       <c r="E71" s="10">
@@ -15256,10 +15462,10 @@
       <c r="B72" s="8">
         <v>2000</v>
       </c>
-      <c r="C72" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="75"/>
+      <c r="C72" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="78"/>
       <c r="E72" s="10">
         <v>2000</v>
       </c>
@@ -15269,7 +15475,7 @@
         <v>3000</v>
       </c>
       <c r="C73" s="77" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D73" s="78"/>
       <c r="E73" s="10">
@@ -15281,7 +15487,7 @@
         <v>4000</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D74" s="78"/>
       <c r="E74" s="10">
@@ -15293,7 +15499,7 @@
         <v>5000</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D75" s="78"/>
       <c r="E75" s="10">
@@ -15305,7 +15511,7 @@
         <v>6000</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D76" s="78"/>
       <c r="E76" s="10">
